--- a/biology/Botanique/Kniphofia/Kniphofia.xlsx
+++ b/biology/Botanique/Kniphofia/Kniphofia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kniphofia est un genre de plantes à fleurs. Il appartient à la famille des Liliaceae selon la classification classique, ou à celle des Asphodelaceae (optionnellement celle des Xanthorrhoeaceae) selon la classification phylogénétique.
-Il comprend 72 espèces originaires d'Afrique. Le Kniphofia est aussi connu sous le nom de « tisons du diable »[1].
+Il comprend 72 espèces originaires d'Afrique. Le Kniphofia est aussi connu sous le nom de « tisons du diable ».
 Conrad Moench nomma ce genre en hommage au médecin et botaniste allemand Johann Hieronymus Kniphof (en).
 Plusieurs espèces sont utilisées en horticulture. Certaines sont connues pour leurs inflorescences de forme conique et aux couleurs chatoyantes.
 </t>
@@ -514,7 +526,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Kniphofia acraea Codd
 Kniphofia albescens Codd
